--- a/CrawlData/WardDistrict.xlsx
+++ b/CrawlData/WardDistrict.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Phường/Xã</t>
   </si>
@@ -150,10 +150,10 @@
     <t>Phường Khuê Mỹ</t>
   </si>
   <si>
-    <t>Phường Hoà Quý</t>
-  </si>
-  <si>
-    <t>Phường Hoà Hải</t>
+    <t>Phường Hòa Quý</t>
+  </si>
+  <si>
+    <t>Phường Hòa Hải</t>
   </si>
   <si>
     <t>Phường Khuê Trung</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Xã Hòa Khương</t>
+  </si>
+  <si>
+    <t>Phường Thanh Lộc Đán</t>
   </si>
 </sst>
 </file>
@@ -244,11 +247,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -775,7 +781,7 @@
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -783,7 +789,7 @@
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -926,7 +932,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="59" ht="14.25" customHeight="1"/>
     <row r="60" ht="14.25" customHeight="1"/>
     <row r="61" ht="14.25" customHeight="1"/>
